--- a/données.xlsx
+++ b/données.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lantz\Documents\Econometrie\Projet_OB1_2024-2025\elec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnaud Destarac\Documents\M2 EEET\Econométrie\Projet économétrie Célec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABFB06F-6E85-4972-8F7E-E3DBCA32166A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371970FF-61F0-4406-BD80-B6D4900FA461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BC769A3D-CA55-4501-911A-66BD34743340}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BC769A3D-CA55-4501-911A-66BD34743340}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -129,12 +129,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -150,9 +156,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -470,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3F251D-4E12-43DD-87B0-997D0941A00C}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G33"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1269,6 +1279,186 @@
       </c>
       <c r="G33">
         <v>166.67193592958398</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B34" s="2">
+        <v>106.45</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2477.828</v>
+      </c>
+      <c r="D34" s="2">
+        <v>193.08019999999999</v>
+      </c>
+      <c r="E34" s="3">
+        <v>65613522</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1.0237603110816549</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B35" s="2">
+        <v>106.45</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2477.828</v>
+      </c>
+      <c r="D35" s="2">
+        <v>193.08019999999999</v>
+      </c>
+      <c r="E35" s="3">
+        <v>65613522</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1.0237603110816549</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B36" s="2">
+        <v>106.45</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2477.828</v>
+      </c>
+      <c r="D36" s="2">
+        <v>193.08019999999999</v>
+      </c>
+      <c r="E36" s="3">
+        <v>65613522</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1.0237603110816549</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B37" s="2">
+        <v>106.45</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2477.828</v>
+      </c>
+      <c r="D37" s="2">
+        <v>193.08019999999999</v>
+      </c>
+      <c r="E37" s="3">
+        <v>65613522</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1.0237603110816549</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B38" s="2">
+        <v>106.45</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2477.828</v>
+      </c>
+      <c r="D38" s="2">
+        <v>193.08019999999999</v>
+      </c>
+      <c r="E38" s="3">
+        <v>65613522</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1.0237603110816549</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2">
+        <v>2027</v>
+      </c>
+      <c r="B39" s="2">
+        <v>106.45</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2477.828</v>
+      </c>
+      <c r="D39" s="2">
+        <v>193.08019999999999</v>
+      </c>
+      <c r="E39" s="3">
+        <v>65613522</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1.0237603110816549</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2">
+        <v>2028</v>
+      </c>
+      <c r="B40" s="2">
+        <v>106.45</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2477.828</v>
+      </c>
+      <c r="D40" s="2">
+        <v>193.08019999999999</v>
+      </c>
+      <c r="E40" s="3">
+        <v>65613522</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1.0237603110816549</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2">
+        <v>2029</v>
+      </c>
+      <c r="B41" s="2">
+        <v>106.45</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2477.828</v>
+      </c>
+      <c r="D41" s="2">
+        <v>193.08019999999999</v>
+      </c>
+      <c r="E41" s="3">
+        <v>65613522</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1.0237603110816549</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2">
+        <v>2030</v>
+      </c>
+      <c r="B42" s="2">
+        <v>106.45</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2477.828</v>
+      </c>
+      <c r="D42" s="2">
+        <v>193.08019999999999</v>
+      </c>
+      <c r="E42" s="3">
+        <v>65613522</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1.0237603110816549</v>
       </c>
     </row>
   </sheetData>
